--- a/proyecto-final/ganancias-gastos.xlsx
+++ b/proyecto-final/ganancias-gastos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dam-2\ape\repositorio-ape\proyecto-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3912667B-FA4C-47B0-A11F-7F4A0A83A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433183F7-53EE-457E-9B35-A31BF66475EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{086BD6BE-34C0-4F6E-9142-487D60C942E9}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Transporte</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>GASTOS</t>
   </si>
@@ -39,50 +36,95 @@
     <t>FUENTES DE FINANCIACION</t>
   </si>
   <si>
-    <t>Desarrollo app</t>
-  </si>
-  <si>
-    <t>Infraestructura/Servidores</t>
-  </si>
-  <si>
-    <t>Registro de la empresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soporte tecnico </t>
-  </si>
-  <si>
-    <t>Soporte del servidor</t>
-  </si>
-  <si>
-    <t>Marketing continuo</t>
-  </si>
-  <si>
-    <t>GASTOS INICIALES</t>
-  </si>
-  <si>
-    <t>GASTOS MENSUALES</t>
-  </si>
-  <si>
-    <t>Gestion de clientes</t>
-  </si>
-  <si>
-    <t>/mes</t>
-  </si>
-  <si>
-    <t>Colaboraciones</t>
-  </si>
-  <si>
-    <t>Pedidos</t>
-  </si>
-  <si>
     <t>Marketing/Publicidad</t>
+  </si>
+  <si>
+    <t>Registro de empresa</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>Notaría y tramites legales</t>
+  </si>
+  <si>
+    <t>Licencias/Permisos</t>
+  </si>
+  <si>
+    <t>Asesoría contable y fiscal</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Desarrollo de la app</t>
+  </si>
+  <si>
+    <t>Mantenimiento/Actualizaciones</t>
+  </si>
+  <si>
+    <t>€/mes</t>
+  </si>
+  <si>
+    <t>Servidores y hosting</t>
+  </si>
+  <si>
+    <t>Software de gestion (ERP)</t>
+  </si>
+  <si>
+    <t>Repartidores</t>
+  </si>
+  <si>
+    <t>€/mes x pers</t>
+  </si>
+  <si>
+    <t>Administracion/Contabilidad</t>
+  </si>
+  <si>
+    <t>Vehículo (patinete electrico)</t>
+  </si>
+  <si>
+    <t>€ x vehic</t>
+  </si>
+  <si>
+    <t>Casco, chaqueta y equipamiento</t>
+  </si>
+  <si>
+    <t>€ x pers</t>
+  </si>
+  <si>
+    <t>Packaing</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Restaurantes</t>
+  </si>
+  <si>
+    <t>Visibilidad de los restaurantes</t>
+  </si>
+  <si>
+    <t>Anuncios(marcas, envases…)</t>
+  </si>
+  <si>
+    <t>Tarifa envios</t>
+  </si>
+  <si>
+    <t>€ x envio</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficios totales </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,16 +132,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5AAA9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,18 +169,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF5AAA9"/>
+      <color rgb="FFF90707"/>
+      <color rgb="FFF98C07"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -427,128 +530,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AB3781-C0DC-467A-BCB0-B818F3D62B18}">
-  <dimension ref="B4:J15"/>
+  <dimension ref="B3:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="1"/>
+      <c r="M4" t="s">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>300</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1">
+        <v>70000</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>500</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1">
+        <v>500</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>15000</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SUM(H5:H9)</f>
+        <v>70651</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>300</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>12000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>800</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
+      <c r="C15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>100</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
+        <v>300</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
+        <f>SUM(C5:C19)</f>
+        <v>26200</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>2000</v>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <f>H10 - C20</f>
+        <v>44451</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>